--- a/WSC/Test Report/HRMS/WSC HRMS_Employee Lifecycle.xlsx
+++ b/WSC/Test Report/HRMS/WSC HRMS_Employee Lifecycle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="19" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1215">
   <si>
     <t>CONTENTS</t>
   </si>
@@ -855,6 +855,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -929,6 +936,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have the following accesses:
 </t>
     </r>
@@ -1003,6 +1017,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have the following accesses:
 </t>
     </r>
@@ -1053,6 +1074,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user should  have only </t>
     </r>
     <r>
@@ -1100,6 +1128,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user   have only </t>
     </r>
     <r>
@@ -1818,6 +1853,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -1831,23 +1873,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Read,Write,Create, submit, cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user  have the only  accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read</t>
     </r>
   </si>
   <si>
@@ -2150,54 +2175,6 @@
   </si>
   <si>
     <t>By click on filter button, user is  able to filter the data as per their status. After fiter, user is able to clear the filter also</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select , Read,Write,Create,Delete, submit, cancel &amp; amend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create, submit, cancel</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3319,6 +3296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -6528,12 +6512,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -7147,7 +7131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7437,9 +7421,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7468,15 +7449,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7845,68 +7817,68 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="1" spans="1:15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" s="25" customFormat="1" ht="90" spans="1:15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="126" t="s">
+      <c r="N3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="125" t="s">
+      <c r="O3" s="121" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7950,13 +7922,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -8004,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>29</v>
@@ -8020,7 +7992,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -8053,7 +8025,7 @@
     <row r="11" s="25" customFormat="1" ht="30" spans="1:8">
       <c r="A11" s="54"/>
       <c r="B11" s="99" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -8067,19 +8039,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>44</v>
@@ -8091,19 +8063,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>44</v>
@@ -8114,19 +8086,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
@@ -8140,19 +8112,19 @@
         <v>258</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" s="25" customFormat="1" ht="45" spans="1:7">
@@ -8160,19 +8132,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
@@ -8183,19 +8155,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
@@ -8206,19 +8178,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
@@ -8229,19 +8201,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
@@ -8252,19 +8224,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
@@ -8275,19 +8247,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
@@ -8298,19 +8270,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
@@ -8321,19 +8293,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
@@ -8344,19 +8316,19 @@
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
@@ -8367,19 +8339,19 @@
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
@@ -8390,19 +8362,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
@@ -8413,19 +8385,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
@@ -8436,19 +8408,19 @@
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
@@ -8459,19 +8431,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
@@ -8482,19 +8454,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
@@ -8505,19 +8477,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
@@ -8528,19 +8500,19 @@
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
@@ -8551,19 +8523,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
@@ -8588,10 +8560,10 @@
         <v>134</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>44</v>
@@ -8603,10 +8575,10 @@
         <v>137</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>44</v>
@@ -8621,7 +8593,7 @@
         <v>242</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>44</v>
@@ -8633,10 +8605,10 @@
         <v>143</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>44</v>
@@ -8682,14 +8654,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8736,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>27</v>
@@ -8757,7 +8729,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -8779,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>36</v>
@@ -8791,7 +8763,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="54"/>
       <c r="B11" s="99" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -8805,19 +8777,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>44</v>
@@ -8829,22 +8801,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>748</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
@@ -8852,19 +8824,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
@@ -8898,19 +8870,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
@@ -8921,19 +8893,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
@@ -8944,19 +8916,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
@@ -8967,19 +8939,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
@@ -8990,19 +8962,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
@@ -9013,22 +8985,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>762</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="F21" s="59" t="s">
         <v>763</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>764</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>765</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>766</v>
-      </c>
       <c r="G21" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:7">
@@ -9036,19 +9008,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
@@ -9059,22 +9031,22 @@
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>766</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>767</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>768</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>769</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>770</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>771</v>
-      </c>
       <c r="G23" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9082,22 +9054,22 @@
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9105,19 +9077,19 @@
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
@@ -9128,19 +9100,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
@@ -9151,19 +9123,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
@@ -9174,19 +9146,19 @@
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
@@ -9197,19 +9169,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
@@ -9220,19 +9192,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
@@ -9243,19 +9215,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
@@ -9266,19 +9238,19 @@
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
@@ -9310,10 +9282,10 @@
         <v>134</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>44</v>
@@ -9325,10 +9297,10 @@
         <v>137</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>44</v>
@@ -9340,13 +9312,13 @@
         <v>140</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="39" s="48" customFormat="1" ht="30" spans="1:5">
@@ -9355,13 +9327,13 @@
         <v>143</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9415,14 +9387,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9490,7 +9462,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -9512,7 +9484,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>36</v>
@@ -9524,7 +9496,7 @@
     <row r="11" s="25" customFormat="1" spans="1:8">
       <c r="A11" s="98"/>
       <c r="B11" s="99" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -9538,19 +9510,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>44</v>
@@ -9562,19 +9534,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>44</v>
@@ -9585,19 +9557,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
@@ -9631,19 +9603,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
@@ -9654,19 +9626,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
@@ -9677,19 +9649,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C18" s="101" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
@@ -9700,19 +9672,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
@@ -9723,19 +9695,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
@@ -9746,19 +9718,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
@@ -9769,19 +9741,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
@@ -9792,19 +9764,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
@@ -9815,19 +9787,19 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>836</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>839</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
@@ -9857,10 +9829,10 @@
         <v>134</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>44</v>
@@ -9872,10 +9844,10 @@
         <v>137</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>44</v>
@@ -9887,13 +9859,13 @@
         <v>140</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" s="48" customFormat="1" ht="30" spans="1:5">
@@ -9902,10 +9874,10 @@
         <v>143</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>44</v>
@@ -9958,13 +9930,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -9975,7 +9947,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>23</v>
@@ -10016,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C5" s="34">
         <v>1</v>
@@ -10032,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="29"/>
@@ -10059,7 +10031,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C9" s="83"/>
       <c r="D9" s="29"/>
@@ -10069,7 +10041,7 @@
     <row r="10" s="24" customFormat="1" spans="1:6">
       <c r="A10" s="84"/>
       <c r="B10" s="28" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -10079,7 +10051,7 @@
     <row r="11" s="24" customFormat="1" spans="1:6">
       <c r="A11" s="84"/>
       <c r="B11" s="28" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -10089,7 +10061,7 @@
     <row r="12" s="24" customFormat="1" spans="1:6">
       <c r="A12" s="84"/>
       <c r="B12" s="28" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -10125,10 +10097,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" s="24" customFormat="1" spans="1:7">
@@ -10136,13 +10108,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>44</v>
@@ -10155,13 +10127,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>44</v>
@@ -10174,13 +10146,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>44</v>
@@ -10193,13 +10165,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>44</v>
@@ -10212,16 +10184,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -10231,13 +10203,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>44</v>
@@ -10250,13 +10222,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>44</v>
@@ -10269,16 +10241,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -10288,13 +10260,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>44</v>
@@ -10307,13 +10279,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>44</v>
@@ -10326,13 +10298,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>44</v>
@@ -10345,13 +10317,13 @@
         <v>12</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>44</v>
@@ -10364,13 +10336,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>44</v>
@@ -10383,13 +10355,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>44</v>
@@ -10401,16 +10373,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C30" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>890</v>
-      </c>
       <c r="E30" s="28" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -10419,13 +10391,13 @@
         <v>16</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>44</v>
@@ -10436,13 +10408,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>44</v>
@@ -10453,13 +10425,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>44</v>
@@ -10470,16 +10442,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" s="24" customFormat="1" ht="30" spans="1:5">
@@ -10487,16 +10459,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" s="24" customFormat="1" ht="75" spans="1:5">
@@ -10504,16 +10476,16 @@
         <v>21</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" s="24" customFormat="1" ht="60" spans="1:5">
@@ -10521,13 +10493,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>44</v>
@@ -10538,13 +10510,13 @@
         <v>23</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>44</v>
@@ -10555,16 +10527,16 @@
         <v>24</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" s="24" customFormat="1" ht="18.75" spans="2:6">
@@ -10586,10 +10558,10 @@
         <v>134</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>44</v>
@@ -10601,13 +10573,13 @@
         <v>137</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43" s="24" customFormat="1" spans="1:5">
@@ -10616,13 +10588,13 @@
         <v>140</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" s="24" customFormat="1" spans="1:5">
@@ -10631,10 +10603,10 @@
         <v>143</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>44</v>
@@ -10695,14 +10667,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -10759,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="50" t="s">
@@ -10800,7 +10772,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -10832,13 +10804,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>36</v>
@@ -10851,7 +10823,7 @@
     <row r="11" s="25" customFormat="1" ht="30" spans="1:9">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -10866,19 +10838,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>44</v>
@@ -10891,19 +10863,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -10916,19 +10888,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>44</v>
@@ -10947,13 +10919,13 @@
         <v>188</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>44</v>
@@ -10966,19 +10938,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
@@ -10991,19 +10963,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>44</v>
@@ -11016,19 +10988,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>44</v>
@@ -11041,19 +11013,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>44</v>
@@ -11066,19 +11038,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>44</v>
@@ -11091,19 +11063,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>44</v>
@@ -11116,19 +11088,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G22" s="74" t="s">
         <v>44</v>
@@ -11141,19 +11113,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
@@ -11166,13 +11138,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>954</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>957</v>
-      </c>
       <c r="D24" s="59" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
@@ -11187,13 +11159,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
@@ -11208,13 +11180,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
@@ -11239,7 +11211,7 @@
         <v>237</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
@@ -11256,10 +11228,10 @@
         <v>134</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E29" s="65" t="s">
         <v>44</v>
@@ -11279,13 +11251,13 @@
         <v>137</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F30" s="80">
         <v>244</v>
@@ -11300,13 +11272,13 @@
         <v>140</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F31" s="80">
         <v>245</v>
@@ -11321,10 +11293,10 @@
         <v>143</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E32" s="65" t="s">
         <v>44</v>
@@ -11383,14 +11355,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -11439,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="50" t="s">
@@ -11474,7 +11446,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -11515,7 +11487,7 @@
     <row r="11" s="25" customFormat="1" spans="1:7">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -11528,13 +11500,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
@@ -11547,13 +11519,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
@@ -11566,13 +11538,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
@@ -11604,13 +11576,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
@@ -11623,13 +11595,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -11642,13 +11614,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
@@ -11661,13 +11633,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -11680,13 +11652,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
@@ -11699,13 +11671,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -11742,10 +11714,10 @@
         <v>134</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E24" s="65" t="s">
         <v>44</v>
@@ -11763,10 +11735,10 @@
         <v>137</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E25" s="65" t="s">
         <v>44</v>
@@ -11780,10 +11752,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>44</v>
@@ -11797,10 +11769,10 @@
         <v>143</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E27" s="65" t="s">
         <v>44</v>
@@ -11857,14 +11829,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -11917,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="50" t="s">
@@ -11955,7 +11927,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -11991,7 +11963,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>39</v>
@@ -12001,7 +11973,7 @@
     <row r="11" s="25" customFormat="1" spans="1:8">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -12015,13 +11987,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
@@ -12035,13 +12007,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
@@ -12055,13 +12027,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
@@ -12095,13 +12067,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
@@ -12115,13 +12087,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -12135,13 +12107,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
@@ -12155,13 +12127,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -12175,16 +12147,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F20" s="4">
         <v>247</v>
@@ -12208,7 +12180,7 @@
         <v>237</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -12224,13 +12196,13 @@
         <v>134</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F23" s="65">
         <v>247</v>
@@ -12248,10 +12220,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E24" s="65" t="s">
         <v>44</v>
@@ -12266,10 +12238,10 @@
         <v>140</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E25" s="65" t="s">
         <v>44</v>
@@ -12284,10 +12256,10 @@
         <v>143</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>44</v>
@@ -12344,13 +12316,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29"/>
@@ -12391,7 +12363,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="29" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="28"/>
@@ -12403,7 +12375,7 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="29" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="28"/>
@@ -12420,7 +12392,7 @@
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="28" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
@@ -12459,7 +12431,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>33</v>
@@ -12468,13 +12440,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" s="24" customFormat="1" ht="180" spans="1:7">
@@ -12482,13 +12454,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -12499,13 +12471,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -12516,13 +12488,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -12567,14 +12539,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -12625,12 +12597,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -12659,7 +12631,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12718,7 +12690,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="13"/>
@@ -12728,14 +12700,14 @@
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="18" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -12743,14 +12715,14 @@
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="18" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -12758,14 +12730,14 @@
     </row>
     <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -12773,14 +12745,14 @@
     </row>
     <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -12789,7 +12761,7 @@
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="10"/>
       <c r="B18" s="14" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13"/>
@@ -12799,14 +12771,14 @@
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="18" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -12814,14 +12786,14 @@
     </row>
     <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="18" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -12829,14 +12801,14 @@
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -12844,14 +12816,14 @@
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -12860,7 +12832,7 @@
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10"/>
@@ -12870,14 +12842,14 @@
     </row>
     <row r="24" customFormat="1" ht="75" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="10" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -12886,7 +12858,7 @@
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="14" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10"/>
@@ -12896,14 +12868,14 @@
     </row>
     <row r="26" customFormat="1" ht="60" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="20" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -12911,14 +12883,14 @@
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -12926,14 +12898,14 @@
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="10" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -12941,10 +12913,10 @@
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="10" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10"/>
@@ -12954,10 +12926,10 @@
     </row>
     <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="10" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10"/>
@@ -12968,7 +12940,7 @@
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="10"/>
@@ -12978,14 +12950,14 @@
     </row>
     <row r="32" customFormat="1" ht="120" spans="1:7">
       <c r="A32" s="16" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -12993,14 +12965,14 @@
     </row>
     <row r="33" customFormat="1" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13008,14 +12980,14 @@
     </row>
     <row r="34" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13023,14 +12995,14 @@
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13038,14 +13010,14 @@
     </row>
     <row r="36" customFormat="1" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="10" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13053,14 +13025,14 @@
     </row>
     <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13068,14 +13040,14 @@
     </row>
     <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="10" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13083,14 +13055,14 @@
     </row>
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="10" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -13098,14 +13070,14 @@
     </row>
     <row r="40" customFormat="1" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="10" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -13113,14 +13085,14 @@
     </row>
     <row r="41" customFormat="1" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -13128,14 +13100,14 @@
     </row>
     <row r="42" customFormat="1" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="10" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -13143,14 +13115,14 @@
     </row>
     <row r="43" customFormat="1" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="10" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -13158,14 +13130,14 @@
     </row>
     <row r="44" customFormat="1" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -13173,14 +13145,14 @@
     </row>
     <row r="45" customFormat="1" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="10" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -13188,14 +13160,14 @@
     </row>
     <row r="46" customFormat="1" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -13203,10 +13175,10 @@
     </row>
     <row r="47" customFormat="1" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10"/>
@@ -13216,14 +13188,14 @@
     </row>
     <row r="48" customFormat="1" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -13231,10 +13203,10 @@
     </row>
     <row r="49" customFormat="1" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10"/>
@@ -13244,14 +13216,14 @@
     </row>
     <row r="50" customFormat="1" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -13259,10 +13231,10 @@
     </row>
     <row r="51" customFormat="1" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10"/>
@@ -13272,10 +13244,10 @@
     </row>
     <row r="52" customFormat="1" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="10"/>
@@ -13285,10 +13257,10 @@
     </row>
     <row r="53" customFormat="1" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="10"/>
@@ -13298,10 +13270,10 @@
     </row>
     <row r="54" customFormat="1" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="10"/>
@@ -13321,7 +13293,7 @@
     <row r="56" customFormat="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="10"/>
@@ -13331,14 +13303,14 @@
     </row>
     <row r="57" customFormat="1" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="10" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -13356,7 +13328,7 @@
     <row r="59" customFormat="1" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="6" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="10"/>
@@ -13366,14 +13338,14 @@
     </row>
     <row r="60" customFormat="1" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="10" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -13381,14 +13353,14 @@
     </row>
     <row r="61" customFormat="1" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="10" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -13396,14 +13368,14 @@
     </row>
     <row r="62" customFormat="1" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -13411,31 +13383,31 @@
     </row>
     <row r="63" customFormat="1" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="10" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" customFormat="1" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -13443,14 +13415,14 @@
     </row>
     <row r="65" customFormat="1" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="10" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -13458,14 +13430,14 @@
     </row>
     <row r="66" customFormat="1" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="10" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -13473,14 +13445,14 @@
     </row>
     <row r="67" customFormat="1" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -13488,14 +13460,14 @@
     </row>
     <row r="68" customFormat="1" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="20" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -13503,14 +13475,14 @@
     </row>
     <row r="69" customFormat="1" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="10" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -13518,14 +13490,14 @@
     </row>
     <row r="70" customFormat="1" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -13533,14 +13505,14 @@
     </row>
     <row r="71" customFormat="1" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="10" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -13548,14 +13520,14 @@
     </row>
     <row r="72" customFormat="1" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="10" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="10"/>
@@ -13563,14 +13535,14 @@
     </row>
     <row r="73" customFormat="1" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="10" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="10"/>
@@ -13578,14 +13550,14 @@
     </row>
     <row r="74" customFormat="1" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="10" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="10"/>
@@ -13593,14 +13565,14 @@
     </row>
     <row r="75" customFormat="1" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="10" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="10"/>
@@ -13608,14 +13580,14 @@
     </row>
     <row r="76" customFormat="1" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="10" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -13623,14 +13595,14 @@
     </row>
     <row r="77" customFormat="1" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -13639,7 +13611,7 @@
     <row r="78" customFormat="1" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -13649,14 +13621,14 @@
     </row>
     <row r="79" customFormat="1" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -13664,14 +13636,14 @@
     </row>
     <row r="80" customFormat="1" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -13679,14 +13651,14 @@
     </row>
     <row r="81" customFormat="1" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -13704,8 +13676,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
@@ -13720,7 +13692,7 @@
     <col min="8" max="8" width="38.1428571428571" style="25" customWidth="1"/>
     <col min="9" max="9" width="20.7142857142857" style="25" customWidth="1"/>
     <col min="10" max="10" width="10.2857142857143" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="8.72380952380952" style="118"/>
+    <col min="11" max="16384" width="8.72380952380952" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -13849,7 +13821,7 @@
     </row>
     <row r="11" ht="30" spans="1:10">
       <c r="A11" s="54"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4"/>
@@ -13865,7 +13837,7 @@
       <c r="A12" s="58">
         <v>1</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -13895,7 +13867,7 @@
       <c r="A13" s="58">
         <v>2</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="117" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -14786,7 +14758,7 @@
       </c>
       <c r="C44" s="105"/>
     </row>
-    <row r="45" s="107" customFormat="1" ht="45" spans="1:10">
+    <row r="45" s="48" customFormat="1" ht="45" spans="1:5">
       <c r="A45" s="103"/>
       <c r="B45" s="28" t="s">
         <v>134</v>
@@ -14800,13 +14772,8 @@
       <c r="E45" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" s="107" customFormat="1" ht="30" spans="1:10">
+    </row>
+    <row r="46" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A46" s="103"/>
       <c r="B46" s="28" t="s">
         <v>137</v>
@@ -14820,13 +14787,8 @@
       <c r="E46" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" s="107" customFormat="1" ht="30" spans="1:10">
+    </row>
+    <row r="47" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A47" s="103"/>
       <c r="B47" s="28" t="s">
         <v>140</v>
@@ -14840,13 +14802,8 @@
       <c r="E47" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-    </row>
-    <row r="48" s="107" customFormat="1" spans="1:10">
+    </row>
+    <row r="48" s="48" customFormat="1" spans="1:5">
       <c r="A48" s="103"/>
       <c r="B48" s="28" t="s">
         <v>143</v>
@@ -14860,11 +14817,6 @@
       <c r="E48" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="58"/>
@@ -14872,7 +14824,7 @@
       <c r="C49" s="4"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="122"/>
+      <c r="B51" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15795,7 +15747,7 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -15809,7 +15761,7 @@
     <col min="6" max="6" width="48.4285714285714" style="25" customWidth="1"/>
     <col min="7" max="7" width="19.5714285714286" style="25" customWidth="1"/>
     <col min="8" max="8" width="18.5714285714286" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="118"/>
+    <col min="9" max="16384" width="9.14285714285714" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15894,12 +15846,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="6:8">
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-    </row>
-    <row r="11" ht="45" spans="1:8">
+    <row r="11" ht="30" spans="1:8">
       <c r="A11" s="53" t="s">
         <v>32</v>
       </c>
@@ -16451,7 +16398,7 @@
       </c>
       <c r="C36" s="105"/>
     </row>
-    <row r="37" s="107" customFormat="1" ht="30" spans="1:8">
+    <row r="37" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A37" s="103"/>
       <c r="B37" s="28" t="s">
         <v>134</v>
@@ -16465,11 +16412,8 @@
       <c r="E37" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="38" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A38" s="103"/>
       <c r="B38" s="28" t="s">
         <v>137</v>
@@ -16483,11 +16427,8 @@
       <c r="E38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="39" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A39" s="103"/>
       <c r="B39" s="28" t="s">
         <v>140</v>
@@ -16496,16 +16437,13 @@
         <v>242</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="E39" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="40" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A40" s="103"/>
       <c r="B40" s="28" t="s">
         <v>143</v>
@@ -16514,14 +16452,11 @@
         <v>242</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="E40" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16561,13 +16496,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16634,7 +16569,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -16670,7 +16605,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="54"/>
       <c r="B11" s="99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -16684,19 +16619,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="E12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>44</v>
@@ -16708,19 +16643,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>44</v>
@@ -16731,19 +16666,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>327</v>
-      </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
@@ -16757,16 +16692,16 @@
         <v>258</v>
       </c>
       <c r="C15" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>329</v>
-      </c>
       <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>44</v>
@@ -16777,19 +16712,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>164</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
@@ -16800,19 +16735,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>334</v>
-      </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
@@ -16823,19 +16758,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>337</v>
-      </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
@@ -16846,19 +16781,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="D19" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="59" t="s">
-        <v>340</v>
-      </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
@@ -16869,19 +16804,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>343</v>
-      </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
@@ -16892,19 +16827,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="D21" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="59" t="s">
-        <v>346</v>
-      </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
@@ -16915,19 +16850,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>343</v>
-      </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
@@ -16938,19 +16873,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>349</v>
-      </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
@@ -16961,19 +16896,19 @@
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>352</v>
-      </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
@@ -16984,19 +16919,19 @@
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>355</v>
-      </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
@@ -17007,19 +16942,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>358</v>
-      </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
@@ -17030,19 +16965,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>361</v>
-      </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
@@ -17053,19 +16988,19 @@
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>364</v>
-      </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
@@ -17076,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>367</v>
-      </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
@@ -17099,19 +17034,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>370</v>
-      </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
@@ -17122,19 +17057,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="D31" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>373</v>
-      </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
@@ -17145,19 +17080,19 @@
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="D32" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>376</v>
-      </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
@@ -17168,19 +17103,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="D33" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>379</v>
-      </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
@@ -17191,19 +17126,19 @@
         <v>23</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="D34" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>382</v>
-      </c>
       <c r="E34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>44</v>
@@ -17214,19 +17149,19 @@
         <v>24</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>385</v>
-      </c>
       <c r="E35" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>44</v>
@@ -17237,19 +17172,19 @@
         <v>25</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="D36" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>388</v>
-      </c>
       <c r="E36" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>44</v>
@@ -17260,19 +17195,19 @@
         <v>26</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>391</v>
-      </c>
       <c r="E37" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>44</v>
@@ -17283,19 +17218,19 @@
         <v>27</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>394</v>
-      </c>
       <c r="E38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>44</v>
@@ -17306,19 +17241,19 @@
         <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="D39" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>397</v>
-      </c>
       <c r="E39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>44</v>
@@ -17329,19 +17264,19 @@
         <v>29</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>400</v>
-      </c>
       <c r="E40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>44</v>
@@ -17352,19 +17287,19 @@
         <v>30</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>403</v>
-      </c>
       <c r="E41" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>44</v>
@@ -17375,19 +17310,19 @@
         <v>31</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>406</v>
-      </c>
       <c r="E42" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>44</v>
@@ -17398,19 +17333,19 @@
         <v>32</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="D43" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>409</v>
-      </c>
       <c r="E43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>44</v>
@@ -17421,19 +17356,19 @@
         <v>33</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>412</v>
-      </c>
       <c r="E44" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>44</v>
@@ -17461,7 +17396,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>44</v>
@@ -17476,7 +17411,7 @@
         <v>313</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>44</v>
@@ -17506,7 +17441,7 @@
         <v>242</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>44</v>
@@ -17549,14 +17484,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -17591,7 +17526,7 @@
       <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="50" t="s">
         <v>27</v>
       </c>
@@ -17619,35 +17554,35 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="10" s="68" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="115" t="s">
-        <v>419</v>
-      </c>
-      <c r="E10" s="116" t="s">
+      <c r="D10" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="115" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:6">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="57"/>
@@ -17658,13 +17593,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
@@ -17675,7 +17610,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>253</v>
@@ -17692,13 +17627,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
@@ -17709,7 +17644,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>188</v>
@@ -17726,13 +17661,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>44</v>
@@ -17743,13 +17678,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -17760,13 +17695,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
@@ -17779,8 +17714,8 @@
       </c>
       <c r="C20" s="105"/>
       <c r="D20" s="105"/>
-      <c r="E20" s="117" t="s">
-        <v>438</v>
+      <c r="E20" s="116" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="21" s="48" customFormat="1" ht="30" spans="1:4">
@@ -17801,10 +17736,10 @@
         <v>137</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" s="48" customFormat="1" ht="30" spans="1:4">
@@ -17828,7 +17763,7 @@
         <v>242</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E24" s="103">
         <v>248</v>
@@ -17875,14 +17810,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -17925,7 +17860,7 @@
       <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="97"/>
       <c r="E4" s="50"/>
     </row>
@@ -17934,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>27</v>
@@ -17958,7 +17893,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -17980,13 +17915,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I11" s="70" t="s">
         <v>36</v>
@@ -17998,7 +17933,7 @@
     <row r="12" s="25" customFormat="1" spans="1:10">
       <c r="A12" s="54"/>
       <c r="B12" s="99" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="56"/>
@@ -18014,25 +17949,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>44</v>
@@ -18044,25 +17979,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>44</v>
@@ -18073,25 +18008,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>44</v>
@@ -18105,22 +18040,22 @@
         <v>258</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>44</v>
@@ -18131,25 +18066,25 @@
         <v>5</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>44</v>
@@ -18160,25 +18095,25 @@
         <v>6</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>44</v>
@@ -18189,25 +18124,25 @@
         <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>44</v>
@@ -18218,25 +18153,25 @@
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>44</v>
@@ -18247,25 +18182,25 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>44</v>
@@ -18276,25 +18211,25 @@
         <v>10</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>44</v>
@@ -18305,25 +18240,25 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>44</v>
@@ -18334,25 +18269,25 @@
         <v>12</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>44</v>
@@ -18363,25 +18298,25 @@
         <v>13</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>44</v>
@@ -18392,25 +18327,25 @@
         <v>14</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>44</v>
@@ -18421,25 +18356,25 @@
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>44</v>
@@ -18450,25 +18385,25 @@
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>44</v>
@@ -18479,25 +18414,25 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>44</v>
@@ -18508,25 +18443,25 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>44</v>
@@ -18537,25 +18472,25 @@
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>44</v>
@@ -18566,25 +18501,25 @@
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>44</v>
@@ -18595,25 +18530,25 @@
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>44</v>
@@ -18624,25 +18559,25 @@
         <v>23</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>44</v>
@@ -18653,25 +18588,25 @@
         <v>24</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>44</v>
@@ -18682,25 +18617,25 @@
         <v>25</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>44</v>
@@ -18711,25 +18646,25 @@
         <v>26</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>44</v>
@@ -18740,25 +18675,25 @@
         <v>27</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>44</v>
@@ -18769,25 +18704,25 @@
         <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>44</v>
@@ -18798,25 +18733,25 @@
         <v>29</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I40" s="20" t="s">
         <v>44</v>
@@ -18827,25 +18762,25 @@
         <v>30</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>44</v>
@@ -18856,25 +18791,25 @@
         <v>31</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>44</v>
@@ -18885,25 +18820,25 @@
         <v>32</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>44</v>
@@ -18929,7 +18864,7 @@
         <v>135</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>44</v>
@@ -18941,10 +18876,10 @@
         <v>137</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>44</v>
@@ -18971,10 +18906,10 @@
         <v>143</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E49" s="48" t="s">
         <v>44</v>
@@ -19021,14 +18956,14 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -19071,22 +19006,22 @@
       <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="97"/>
       <c r="E4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="135" spans="1:5">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>29</v>
@@ -19102,94 +19037,94 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="10" s="25" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="108" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" s="25" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="112" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="D11" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" s="25" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112" t="s">
         <v>548</v>
       </c>
-      <c r="D11" s="113" t="s">
+    </row>
+    <row r="12" s="25" customFormat="1" spans="1:10">
+      <c r="A12" s="111"/>
+      <c r="B12" s="99" t="s">
         <v>549</v>
       </c>
-      <c r="E11" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:10">
-      <c r="A12" s="112"/>
-      <c r="B12" s="99" t="s">
-        <v>552</v>
-      </c>
       <c r="C12" s="99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
       <c r="J12" s="99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="1" ht="105" spans="4:10">
       <c r="D13" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="45" spans="1:10">
+      <c r="A14" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="14" s="25" customFormat="1" ht="45" spans="1:10">
-      <c r="A14" s="114" t="s">
+      <c r="E14" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>556</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="16" s="68" customFormat="1" ht="30" spans="1:10">
@@ -19227,7 +19162,7 @@
     <row r="17" s="25" customFormat="1" ht="30" spans="1:10">
       <c r="A17" s="54"/>
       <c r="B17" s="99" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="56"/>
@@ -19243,25 +19178,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>44</v>
@@ -19273,25 +19208,25 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>253</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>44</v>
@@ -19302,25 +19237,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>44</v>
@@ -19334,22 +19269,22 @@
         <v>258</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>44</v>
@@ -19360,25 +19295,25 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>164</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>44</v>
@@ -19389,25 +19324,25 @@
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>44</v>
@@ -19418,25 +19353,25 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C24" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>340</v>
-      </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>44</v>
@@ -19445,25 +19380,25 @@
     <row r="25" spans="1:9">
       <c r="A25" s="68"/>
       <c r="B25" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="104" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="104" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>44</v>
@@ -19474,25 +19409,25 @@
         <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>44</v>
@@ -19503,25 +19438,25 @@
         <v>9</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>44</v>
@@ -19532,25 +19467,25 @@
         <v>10</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>44</v>
@@ -19561,25 +19496,25 @@
         <v>11</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>44</v>
@@ -19590,25 +19525,25 @@
         <v>12</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>44</v>
@@ -19619,25 +19554,25 @@
         <v>13</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>44</v>
@@ -19648,25 +19583,25 @@
         <v>14</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>44</v>
@@ -19677,25 +19612,25 @@
         <v>15</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>44</v>
@@ -19706,25 +19641,25 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>44</v>
@@ -19735,25 +19670,25 @@
         <v>17</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>44</v>
@@ -19764,25 +19699,25 @@
         <v>18</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>44</v>
@@ -19793,25 +19728,25 @@
         <v>19</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>44</v>
@@ -19822,25 +19757,25 @@
         <v>20</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>44</v>
@@ -19851,25 +19786,25 @@
         <v>21</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>44</v>
@@ -19880,25 +19815,25 @@
         <v>22</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I40" s="20" t="s">
         <v>44</v>
@@ -19909,25 +19844,25 @@
         <v>23</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>44</v>
@@ -19938,25 +19873,25 @@
         <v>24</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>44</v>
@@ -19967,25 +19902,25 @@
         <v>25</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>44</v>
@@ -19996,25 +19931,25 @@
         <v>26</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>44</v>
@@ -20025,25 +19960,25 @@
         <v>27</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>44</v>
@@ -20054,25 +19989,25 @@
         <v>28</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="D46" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>400</v>
-      </c>
       <c r="E46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>44</v>
@@ -20083,25 +20018,25 @@
         <v>29</v>
       </c>
       <c r="B47" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="D47" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>403</v>
-      </c>
       <c r="E47" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>44</v>
@@ -20112,25 +20047,25 @@
         <v>30</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>44</v>
@@ -20141,25 +20076,25 @@
         <v>31</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>44</v>
@@ -20170,25 +20105,25 @@
         <v>32</v>
       </c>
       <c r="B50" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="D50" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>412</v>
-      </c>
       <c r="E50" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>44</v>
@@ -20221,7 +20156,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>44</v>
@@ -20237,10 +20172,10 @@
         <v>137</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>44</v>
@@ -20256,10 +20191,10 @@
         <v>140</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>44</v>
@@ -20328,13 +20263,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -20383,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>29</v>
@@ -20402,7 +20337,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -20436,7 +20371,7 @@
     <row r="11" s="25" customFormat="1" ht="30" spans="1:8">
       <c r="A11" s="54"/>
       <c r="B11" s="99" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="56"/>
@@ -20450,19 +20385,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>44</v>
@@ -20474,19 +20409,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>44</v>
@@ -20497,19 +20432,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>44</v>
@@ -20523,16 +20458,16 @@
         <v>258</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>44</v>
@@ -20543,19 +20478,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>44</v>
@@ -20566,19 +20501,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>44</v>
@@ -20589,19 +20524,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>44</v>
@@ -20612,19 +20547,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>44</v>
@@ -20635,19 +20570,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>44</v>
@@ -20658,19 +20593,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
@@ -20681,19 +20616,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>44</v>
@@ -20704,19 +20639,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>44</v>
@@ -20727,19 +20662,19 @@
         <v>13</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
@@ -20750,19 +20685,19 @@
         <v>14</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>44</v>
@@ -20773,19 +20708,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>44</v>
@@ -20796,19 +20731,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>44</v>
@@ -20819,19 +20754,19 @@
         <v>17</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>44</v>
@@ -20842,19 +20777,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>44</v>
@@ -20865,19 +20800,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>44</v>
@@ -20888,19 +20823,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>44</v>
@@ -20911,19 +20846,19 @@
         <v>21</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>44</v>
@@ -20934,19 +20869,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
@@ -20959,43 +20894,37 @@
       </c>
       <c r="C35" s="105"/>
     </row>
-    <row r="36" s="107" customFormat="1" ht="30" spans="1:8">
+    <row r="36" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A36" s="103"/>
       <c r="B36" s="28" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-    </row>
-    <row r="37" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="37" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A37" s="103"/>
       <c r="B37" s="28" t="s">
         <v>137</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="38" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A38" s="103"/>
       <c r="B38" s="28" t="s">
         <v>140</v>
@@ -21004,32 +20933,26 @@
         <v>242</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" s="107" customFormat="1" ht="30" spans="1:8">
+    </row>
+    <row r="39" s="48" customFormat="1" ht="30" spans="1:5">
       <c r="A39" s="103"/>
       <c r="B39" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E39" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
